--- a/attendance/yoklama_2025_12_10.xlsx
+++ b/attendance/yoklama_2025_12_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02220202021</t>
+          <t>2220202021</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -563,6 +563,60 @@
         </is>
       </c>
       <c r="E5" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22:13:37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>02220202022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22:22:28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Geldi</t>
         </is>

--- a/attendance/yoklama_2025_12_10.xlsx
+++ b/attendance/yoklama_2025_12_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,20 +603,155 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22:22:28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23:00:20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23:00:59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23:02:24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2220202022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>23:03:30</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Geldi</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AzimeNur Ozkaya</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>02220202022</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.12.2025</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>22:22:28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.12.2025</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23:07:17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Geldi</t>
         </is>
